--- a/regions/2/ckhovrebis done/shemosavlebi.xlsx
+++ b/regions/2/ckhovrebis done/shemosavlebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -275,91 +275,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -369,7 +367,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -684,1998 +682,2233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="16">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="14">
         <v>2011</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>2012</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>2013</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>2014</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>2015</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>2016</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>2017</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>2018</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <v>2019</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="15">
         <v>2020</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="M2" s="15">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>61.741641638844499</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>64.269558349499192</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>68.215925257626822</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>84.725000976294297</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>91.365402428267302</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>92.929927675982711</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>89.165454673039804</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>82.250922492791858</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>89.667705197127191</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>93.906257662394822</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="5">
         <v>99.736877271991474</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="M3" s="19">
+        <v>115.65529492982292</v>
+      </c>
+      <c r="N3" s="19">
+        <v>135.92502846417366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>47.79074386162862</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>50.210737807044353</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>55.538498347709663</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>72.614323045198489</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>79.377952369286035</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>80.55570860164859</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>77.92074946517566</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>71.556984616507961</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>79.070305202047365</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>83.011131855254163</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="5">
         <v>86.829011953044088</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="M4" s="19">
+        <v>100.58247660286725</v>
+      </c>
+      <c r="N4" s="19">
+        <v>119.4790830860746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>14.340985535649493</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>17.15222144209428</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>19.452804513832763</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>25.602251304253627</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>33.012093551748592</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>33.226582902852137</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>32.77182236751684</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>29.497335031026203</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>30.94980046608099</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>31.53070110702896</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="6">
         <v>30.980034943005876</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="M5" s="20">
+        <v>39.640727743179319</v>
+      </c>
+      <c r="N5" s="20">
+        <v>46.468893297192892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>4.0150472194491238</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>4.0970524888889495</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>5.7136270917493732</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>8.1445871081439289</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>8.5521816388593113</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>9.288729356980113</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>10.329771244875595</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>6.6546083734448755</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>8.8307214853032434</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>9.9465188245836913</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="6">
         <v>10.216997430750531</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="M6" s="20">
+        <v>12.756307075856526</v>
+      </c>
+      <c r="N6" s="20">
+        <v>13.153676429735819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>6.2825256018841138</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>5.0809617893121128</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>5.4666458793977748</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>7.5506044786576449</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>10.367253456162299</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>10.731670965276351</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>6.7736467926204051</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>6.3632894600062047</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>7.4067408715445184</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>8.1827108229977306</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="6">
         <v>9.0833147792328521</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="M7" s="20">
+        <v>8.146540430668006</v>
+      </c>
+      <c r="N7" s="20">
+        <v>11.810795986455027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.23034285985602049</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.16106091857523991</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.76830321912182842</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.72183035107337579</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>0.37113159141606755</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>0.73426799519856778</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>0.73522765356699638</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>0.83277416502634682</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>0.47949828637441005</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="6">
         <v>0.1010590108235677</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="M8" s="20">
+        <v>0.31374689239501952</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.42907090479532872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>9.1230795664104658</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>10.001794183324204</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>12.293813469587359</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>15.332641861045772</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>15.065494425216544</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>16.152493375504378</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>17.230260092314403</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>18.329585676942187</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>21.024602671689351</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>24.629584382954917</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="6">
         <v>26.025503680695842</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="M9" s="20">
+        <v>29.300547899546299</v>
+      </c>
+      <c r="N9" s="20">
+        <v>35.751378145708721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>3.4280888167653165</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>2.6506071283675969</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>3.7620076072683659</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>4.070951257401104</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>1.6038402086132075</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>2.2032807076988172</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>2.9306280321121219</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>3.4502100952466321</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>3.332595521570842</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>3.2681708856836948</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="6">
         <v>5.2414490169525152</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="M10" s="20">
+        <v>4.8304208000183104</v>
+      </c>
+      <c r="N10" s="20">
+        <v>3.6015434477488202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>10.601017121470127</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>10.997757915201142</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>8.6885388672988491</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>11.144983816574602</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>10.055258737612663</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>8.5818197019207414</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>7.150352940537779</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>6.5267283262748714</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>6.693070020832061</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>4.9739475456307733</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="6">
         <v>5.1806530915828866</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="M11" s="20">
+        <v>5.5941857612037662</v>
+      </c>
+      <c r="N11" s="20">
+        <v>8.2637248744379672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>13.950897777215832</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>14.058820542454951</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>12.677426909917072</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>12.110677931095758</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>11.987450058981343</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>12.374219074334173</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>11.24470520786385</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>10.693937876283929</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>10.597399995079822</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>10.895125807140651</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="5">
         <v>12.907865318947376</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="M12" s="19">
+        <v>15.072818326955638</v>
+      </c>
+      <c r="N12" s="19">
+        <v>16.445945378099069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>5.7946074907090432</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>6.6554685680182395</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>7.2915045925326352</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>10.053206875156731</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>12.190121815230759</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>9.4064163732053334</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>9.0951074697049457</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>6.0385763545608517</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>5.421917769304911</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>5.399634222709655</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="5">
         <v>4.0595448403040564</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="M13" s="19">
+        <v>5.6513218341318758</v>
+      </c>
+      <c r="N13" s="19">
+        <v>4.0265273628997802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>1.4174901579433326</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>0.32117150554705887</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>0.38909571492866951</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>0.54916592234788564</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>2.6480280456085294</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>0.16063206053945686</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>0.37503036918640137</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>0.5098063298543295</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <v>0.34503935376485184</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>6.2194798787434891E-2</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="6">
         <v>3.9091184997558592E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="M14" s="20">
+        <v>0.44941726175944013</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0.72963815879821781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>4.3771173327657067</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>6.3342970624711823</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>6.9024088776039649</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>9.5040409528088414</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>9.5420937696222214</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>9.2457843126658759</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>8.7200771005185445</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>5.5287700247065219</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>5.076878415540059</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>5.3374394239222216</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="6">
         <v>4.0204536553064978</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="M15" s="20">
+        <v>5.2019045723724364</v>
+      </c>
+      <c r="N15" s="20">
+        <v>3.2968892041015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>53.585351352337725</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>56.866206375062589</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>62.830002940242323</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>82.66752992035525</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>91.568074184516803</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>89.962124974854049</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>87.015856934880645</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>77.595560971068821</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>84.492222971352248</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>88.410766077963828</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="5">
         <v>90.888556793348144</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="M16" s="19">
+        <v>106.23379843699915</v>
+      </c>
+      <c r="N16" s="19">
+        <v>123.50561044897438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>67.536249129553525</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>70.925026917517457</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>75.507429850159482</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>94.778207851450986</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>103.5555242434981</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>102.33634404918816</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>98.260562142744746</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>88.289498847352718</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>95.08962296643206</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="7">
         <v>99.305891885104458</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="7">
         <v>103.79642211229552</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="M17" s="21">
+        <v>121.30661676395479</v>
+      </c>
+      <c r="N17" s="21">
+        <v>139.95155582707343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="16">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="14">
         <v>2011</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>2012</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>2013</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>2014</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <v>2015</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="14">
         <v>2016</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="14">
         <v>2017</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <v>2018</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <v>2019</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <v>2020</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="M21" s="15">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>640.5797528150905</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>669.06489380441121</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>719.41199986533297</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>906.05565127170883</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>992.42086558053143</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>1019.5916962679792</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>904.34623687468263</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <v>883.63941416154296</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>965.65330349266105</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>995.26310779699077</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="5">
         <v>1072.4448957909062</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="18" t="s">
+      <c r="M22" s="22">
+        <v>1249.8497752711637</v>
+      </c>
+      <c r="N22" s="22">
+        <v>1474.6620170649578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>495.836878922099</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>522.70846138423849</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>585.71458226136372</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>776.5431336705451</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>862.21188879659155</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>883.82648766927889</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>790.29862867500356</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>768.75213127535335</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>851.5273281352612</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>879.79139120875391</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="5">
         <v>933.64995197979681</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="M23" s="19">
+        <v>1086.962649263837</v>
+      </c>
+      <c r="N23" s="19">
+        <v>1296.2385783661757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>148.79009896250417</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>178.55964024613496</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>205.15123038254404</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>273.79243685093513</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>358.58092436000373</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>364.54938543832668</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <v>332.38292051855046</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>316.89623722368566</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>333.30592097574203</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>334.17734191495168</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="6">
         <v>333.12031873070072</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="M24" s="20">
+        <v>428.3846640265009</v>
+      </c>
+      <c r="N24" s="20">
+        <v>504.14491499243235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>41.656779559251291</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>42.651514321646864</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>60.256485227408056</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>87.098838496009577</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>92.894720310593229</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>101.91239311278608</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <v>104.76803810774619</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>71.491894149888125</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>95.100185242388704</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>105.41792936426103</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="6">
         <v>109.86073601478448</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="M25" s="20">
+        <v>137.85332994674715</v>
+      </c>
+      <c r="N25" s="20">
+        <v>142.70533716170328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>65.18224313908479</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>52.894297818321171</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>57.651796553377913</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>80.746742750931247</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>112.61022635712878</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>117.74379768621968</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>68.700619643413418</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>68.362192181771192</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>79.764992033611534</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>86.724254662339433</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="6">
         <v>97.670539105458658</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="M26" s="20">
+        <v>88.037056432963482</v>
+      </c>
+      <c r="N26" s="20">
+        <v>128.13631477089692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="3">
         <v>0</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>2.3979365196520543</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>1.698564625412103</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>8.2162934854418204</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>7.8405992068711772</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>4.0719141647232684</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>7.447194664685763</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>7.8987093808004589</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>8.9683473191728194</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <v>5.081950517036038</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="6">
         <v>1.0866614565829096</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="M27" s="20">
+        <v>3.3905623014482904</v>
+      </c>
+      <c r="N27" s="20">
+        <v>4.6550261793481136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>94.653460750982887</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>104.12160181230702</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>129.65179172935692</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>163.96844670456457</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>163.64302701573092</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>177.21899211102175</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>174.75513282576225</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>196.91869535951315</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <v>226.4190544399915</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <v>261.03603004663506</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="6">
         <v>279.84552300182918</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="M28" s="20">
+        <v>316.64164818213379</v>
+      </c>
+      <c r="N28" s="20">
+        <v>387.86969555867199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>35.566988965355279</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>27.593595201238855</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>39.674510109366892</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>43.535064624572485</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>17.421085507005138</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>24.173554960139434</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>29.723421948987195</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>37.066351779399859</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>35.889530879985486</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <v>34.637626857531053</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="6">
         <v>56.359948281211608</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="19" t="s">
+      <c r="M29" s="20">
+        <v>52.200812379851186</v>
+      </c>
+      <c r="N29" s="20">
+        <v>39.073446481596399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>109.98730754492078</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>114.48987546493717</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>91.630203633898418</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>119.18531075809048</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>109.22130603925814</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>94.156450196062238</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>72.521300965858813</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>70.118051200295</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="6">
         <v>72.079297244368902</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>52.716257845999785</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="6">
         <v>55.706225389229182</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="18" t="s">
+      <c r="M30" s="20">
+        <v>60.454575994192034</v>
+      </c>
+      <c r="N30" s="20">
+        <v>89.653843221526543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>144.74287389299104</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>146.3564324201738</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>133.6974176039684</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>129.51251760116313</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>130.20897678394073</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>135.7652085987007</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>114.04760819967606</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>114.88728288618999</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <v>114.12597535739995</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="5">
         <v>115.47171658823687</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="5">
         <v>138.79494381110942</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="18" t="s">
+      <c r="M31" s="19">
+        <v>162.88712600732654</v>
+      </c>
+      <c r="N31" s="19">
+        <v>178.42343869878198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>60.120011964883339</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>69.285373745133555</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>76.896939844038599</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>107.50976450490624</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>132.41041928208642</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>103.20361013514476</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="5">
         <v>92.245659985239172</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>64.873729200806423</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>58.389949800595431</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>57.227887376594559</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="5">
         <v>43.651237759786994</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="M32" s="19">
+        <v>61.072027257036552</v>
+      </c>
+      <c r="N32" s="19">
+        <v>43.684132568021319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>14.706695042295237</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>3.3434892781322541</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>4.1034424932112081</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>5.872822445506511</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>28.763166529776949</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>1.7623936569873546</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="6">
         <v>3.8036850070590522</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="6">
         <v>5.4769594430725652</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="6">
         <v>3.715812633606653</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <v>0.65917000922909919</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="6">
         <v>0.42033742150079129</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="19" t="s">
+      <c r="M33" s="20">
+        <v>4.8567085835010637</v>
+      </c>
+      <c r="N33" s="20">
+        <v>7.915905489506958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>45.413316922588066</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>65.941884467001316</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>72.79349735082738</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>101.63694205939971</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>103.64725275230937</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>101.44121647815739</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="6">
         <v>88.441974978180113</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="6">
         <v>59.396769757733864</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="6">
         <v>54.674137166988785</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="6">
         <v>56.568717367365451</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="6">
         <v>43.230900338286204</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="18" t="s">
+      <c r="M34" s="20">
+        <v>56.215318673535492</v>
+      </c>
+      <c r="N34" s="20">
+        <v>35.768227078514371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>555.95689088698293</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>591.99383512937209</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>662.61152210540251</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>884.05289817545167</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>994.62230807867809</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>987.03009780442517</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>882.54428866024318</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="5">
         <v>833.62586047615957</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="5">
         <v>909.91727793585619</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="5">
         <v>937.01927858534862</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="5">
         <v>977.30118973958372</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="M35" s="19">
+        <v>1148.0346765208737</v>
+      </c>
+      <c r="N35" s="19">
+        <v>1339.9227109341971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>700.69976477997363</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>738.35026754954504</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>796.30893970937188</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>1013.5654157766146</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>1124.8312848626183</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>1122.7953064031251</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="7">
         <v>996.5918968599218</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>948.51314336234941</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="7">
         <v>1024.0432532932559</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="7">
         <v>1052.4909951735851</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="7">
         <v>1116.0961335506934</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="26" t="s">
+      <c r="M36" s="21">
+        <v>1310.9218025282003</v>
+      </c>
+      <c r="N36" s="21">
+        <v>1518.3461496329789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="16">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="14">
         <v>2011</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <v>2012</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>2013</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>2014</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>2015</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="14">
         <v>2016</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="14">
         <v>2017</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="14">
         <v>2018</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="15">
         <v>2019</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="15">
         <v>2020</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="M40" s="15">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <v>173.11258366281368</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>185.12097135026417</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>200.74607505805312</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>252.84025920056422</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <v>275.32553580215853</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <v>283.00284640234031</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>275.21250625906094</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="11">
         <v>256.38915176394426</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>283.5835625790782</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>301.83971052090021</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="11">
         <v>323.44507497543526</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="M41" s="19">
+        <v>383.9651507804993</v>
+      </c>
+      <c r="N41" s="19">
+        <v>463.04980637865521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>133.99674717831357</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>144.62617752103961</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>163.43889664788156</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>216.69901503522544</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="8">
         <v>239.20189356261517</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <v>245.31919262556298</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>240.50530363503486</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="11">
         <v>223.0544537688302</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>250.06816884759547</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="11">
         <v>266.81987583066052</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="11">
         <v>281.58507714861162</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="M42" s="19">
+        <v>333.92475301826715</v>
+      </c>
+      <c r="N42" s="19">
+        <v>407.02412877469635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>40.209573189991161</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <v>49.404974543442847</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <v>57.245784474453096</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <v>76.403420257223331</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <v>99.480460913223325</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="9">
         <v>101.18610627263736</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <v>101.15145379467374</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="12">
         <v>91.947864883393322</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="12">
         <v>97.882003983347829</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="12">
         <v>101.34806701468486</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="12">
         <v>100.46775073532503</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="A44" s="19" t="s">
+      <c r="M43" s="20">
+        <v>131.60364178911249</v>
+      </c>
+      <c r="N43" s="20">
+        <v>158.30353163815593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="A44" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>11.257478409024724</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>11.801082128053082</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>16.814082762672889</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <v>24.305452838895363</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <v>25.771615178349261</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="9">
         <v>28.287301122754847</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="12">
         <v>31.883224773647349</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="12">
         <v>20.743468212630599</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="12">
         <v>27.928086856249053</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="12">
         <v>31.970759323585444</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="12">
         <v>33.133556918980844</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="A45" s="19" t="s">
+      <c r="M44" s="20">
+        <v>42.349789283366455</v>
+      </c>
+      <c r="N44" s="20">
+        <v>44.810050016373772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
+      <c r="A45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>17.615084568559372</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>14.635118180151053</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>16.087265545059626</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <v>22.532862455072706</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <v>31.24125256117253</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="9">
         <v>32.681543026870131</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="12">
         <v>20.907113827283286</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="12">
         <v>19.835381022290822</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="12">
         <v>23.424598174281769</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="12">
         <v>26.301410870501996</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="12">
         <v>29.457042471686634</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="19" t="s">
+      <c r="M45" s="20">
+        <v>27.045779673977478</v>
+      </c>
+      <c r="N45" s="20">
+        <v>40.235318369988669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>0.6634757582782822</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>0.47397066194025134</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>2.2928059348354988</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <v>2.1752033361158847</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <v>1.1302203648192692</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="12">
         <v>2.2663455927569567</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="12">
         <v>2.2918210366328342</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="12">
         <v>2.633736014798278</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="12">
         <v>1.5412351376502367</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="12">
         <v>0.3277327326344065</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="19" t="s">
+      <c r="M46" s="20">
+        <v>1.0416113928762538</v>
+      </c>
+      <c r="N46" s="20">
+        <v>1.4616969489217995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>25.579492750466731</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>28.809002302360252</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>36.178279370909266</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <v>45.756377665441647</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <v>45.399190661955267</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="9">
         <v>49.189768205792859</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <v>53.181841340793596</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="12">
         <v>57.136221472866687</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="12">
         <v>66.492520516051883</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="12">
         <v>79.166040745953936</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="12">
         <v>84.400286228332362</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="19" t="s">
+      <c r="M47" s="20">
+        <v>97.275177059788106</v>
+      </c>
+      <c r="N47" s="20">
+        <v>121.79264492487408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>9.6117514264874711</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>7.6347648695981336</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>11.070849785376573</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <v>12.148720675756049</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <v>4.8331004192114015</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <v>6.7097298716964096</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <v>9.0454928827330381</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="12">
         <v>10.754851288205352</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="12">
         <v>10.539684366455932</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="12">
         <v>10.504771232754967</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="12">
         <v>16.997934130670998</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1">
-      <c r="A49" s="19" t="s">
+      <c r="M48" s="20">
+        <v>16.036561507518442</v>
+      </c>
+      <c r="N48" s="20">
+        <v>12.269219399751433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>29.723366833784162</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>31.677759739155825</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <v>25.568664047470044</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <v>33.259375208000911</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="9">
         <v>30.301070492587392</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="9">
         <v>26.134523760992167</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>22.069831423147054</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="12">
         <v>20.344845852810586</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="12">
         <v>21.167538936410647</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="12">
         <v>15.987591505529151</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L49" s="12">
         <v>16.800773930981222</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1">
-      <c r="A50" s="18" t="s">
+      <c r="M49" s="20">
+        <v>18.572192311628005</v>
+      </c>
+      <c r="N49" s="20">
+        <v>28.151667476630685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
+      <c r="A50" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="8">
         <v>39.115836484499987</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>40.494793829224875</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>37.307178410171311</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>36.141244165338613</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <v>36.123642239543592</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <v>37.683653776777476</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="11">
         <v>34.707202624025179</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="11">
         <v>33.334697995114063</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="11">
         <v>33.515393731482767</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="11">
         <v>35.019834690239726</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L50" s="11">
         <v>41.859997826823808</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1">
-      <c r="A51" s="18" t="s">
+      <c r="M50" s="19">
+        <v>50.040397762232026</v>
+      </c>
+      <c r="N50" s="19">
+        <v>56.025677603958762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>16.247048951115477</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>19.170301426418451</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <v>21.457466459491336</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>30.001244058087678</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <v>36.73438447236137</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="8">
         <v>28.645697620086281</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="11">
         <v>28.072388915769658</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="11">
         <v>18.823198846716245</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="11">
         <v>17.147386047742376</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="11">
         <v>17.355861805939043</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="11">
         <v>13.165038059668836</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1">
-      <c r="A52" s="19" t="s">
+      <c r="M51" s="19">
+        <v>18.761878921913851</v>
+      </c>
+      <c r="N51" s="19">
+        <v>13.716993381101478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>3.9743903311407411</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <v>0.92509708489947307</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="9">
         <v>1.1450322970603493</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="9">
         <v>1.6388462974394811</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="9">
         <v>7.9797135578614391</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="9">
         <v>0.4891785831862655</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="12">
         <v>1.1575452422187678</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="12">
         <v>1.5891470698908674</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="12">
         <v>1.0912233000221183</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="12">
         <v>0.19991063992131233</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="12">
         <v>0.12677207877616853</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1">
-      <c r="A53" s="19" t="s">
+      <c r="M52" s="20">
+        <v>1.4920247860638678</v>
+      </c>
+      <c r="N52" s="20">
+        <v>2.48562617183519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
+      <c r="A53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>12.272658619974724</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="9">
         <v>18.245204341518981</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="9">
         <v>20.312434162430986</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="9">
         <v>28.362397760648189</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="9">
         <v>28.754670914499908</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="9">
         <v>28.156519036900011</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="12">
         <v>26.914843673550891</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="12">
         <v>17.234051776825375</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="12">
         <v>16.056162747720258</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="12">
         <v>17.155951166017729</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="12">
         <v>13.038265980892668</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1">
-      <c r="A54" s="18" t="s">
+      <c r="M53" s="20">
+        <v>17.269854135849982</v>
+      </c>
+      <c r="N53" s="20">
+        <v>11.231367209266288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
+      <c r="A54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="8">
         <v>150.24379612942923</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>163.79647894745804</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>184.89636310737296</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <v>246.70025909331321</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="8">
         <v>275.93627803497657</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="8">
         <v>273.96489024564966</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="11">
         <v>268.57769255080461</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="11">
         <v>241.87765261554645</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="11">
         <v>267.21555489533773</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="11">
         <v>284.17573763659965</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="11">
         <v>294.75011520828031</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1">
-      <c r="A55" s="20" t="s">
+      <c r="M54" s="19">
+        <v>352.68663194018114</v>
+      </c>
+      <c r="N54" s="19">
+        <v>420.74112215579788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>189.35963261392911</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <v>204.29127277668266</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="10">
         <v>222.20354151754452</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="10">
         <v>282.84150325865176</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="10">
         <v>312.05992027452004</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="10">
         <v>311.6485440224269</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="13">
         <v>303.28489517483058</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="13">
         <v>275.21235061066045</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="13">
         <v>300.73094862682041</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="13">
         <v>319.19557232683934</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="13">
         <v>336.61011303510423</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1">
-      <c r="A56" s="27" t="s">
+      <c r="M55" s="21">
+        <v>402.72702970241312</v>
+      </c>
+      <c r="N55" s="21">
+        <v>476.76679975975657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" ht="30" customHeight="1">
-      <c r="A57" s="28" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-    </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
